--- a/src/main/resources/poi/report_outsourced_reconciliation.xlsx
+++ b/src/main/resources/poi/report_outsourced_reconciliation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyupeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D8E6D-10EA-466D-9E6F-7623D1DE16FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4228BA8C-D0DB-4280-9B2E-A7C11B58B4AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3408" yWindow="4836" windowWidth="17280" windowHeight="5328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4980" yWindow="3180" windowWidth="17280" windowHeight="5328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,44 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>供应商名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{{fe: list t.supplierName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.deptName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.contractCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.contractDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.payableAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.paidAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.unpaidAmount}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +64,46 @@
   </si>
   <si>
     <t>剩余数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.supplierName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{fe: list t.supplierCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.materielSerialNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.materielName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.specification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.unitUomName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.chargeOffCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.diffCount}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,13 +526,14 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="6" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
     <col min="8" max="8" width="14.44140625" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" customWidth="1"/>
@@ -533,66 +542,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
